--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -481,13 +481,13 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>

--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="975" yWindow="3390" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3735" yWindow="3480" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -443,13 +443,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="14.375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="23" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.5" customWidth="1" style="1" min="4" max="4"/>
-    <col width="19.25" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="19.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,28 +457,18 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>DeathMonsterCount</t>
+          <t>Monster Death Count</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>EarnItemCount</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>SkillName</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>SkillLevel</t>
+          <t>Earn Item Count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>

--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -1,44 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE83BAD-FEF0-4348-97EA-72B2349D470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3735" yWindow="3480" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>PlayTime</t>
+  </si>
+  <si>
+    <t>Monster Death Count</t>
+  </si>
+  <si>
+    <t>Earn Item Count</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>MaxLife</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>FlameSpirit_Easy</t>
+  </si>
+  <si>
+    <t>FlameSpirit_Normal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,88 +97,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,58 +422,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="19.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.875" customWidth="1" style="1" min="4" max="4"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>PlayTime</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Monster Death Count</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Earn Item Count</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -1,81 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE83BAD-FEF0-4348-97EA-72B2349D470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="3735" windowWidth="28800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>PlayTime</t>
-  </si>
-  <si>
-    <t>Monster Death Count</t>
-  </si>
-  <si>
-    <t>Earn Item Count</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>MaxLife</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>FlameSpirit_Easy</t>
-  </si>
-  <si>
-    <t>FlameSpirit_Normal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,32 +57,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,160 +441,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col width="19.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="17.625" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PlayTime</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Monster Death Count</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Earn Item Count</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>MaxLife</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1209</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>761</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>652</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>300</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3">
+      <c r="K15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>300</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4">
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>250</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>300</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>300</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -1,81 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE83BAD-FEF0-4348-97EA-72B2349D470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="3735" windowWidth="28800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>PlayTime</t>
-  </si>
-  <si>
-    <t>Monster Death Count</t>
-  </si>
-  <si>
-    <t>Earn Item Count</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>MaxLife</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>FlameSpirit_Easy</t>
-  </si>
-  <si>
-    <t>FlameSpirit_Normal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,32 +57,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,160 +441,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col width="19.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="17.625" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PlayTime</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Monster Death Count</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Earn Item Count</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>MaxLife</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
+      <c r="K2" t="n">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>300</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
+    <row r="3">
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="H3" s="0" t="n"/>
+      <c r="I3" s="0" t="n"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>300</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
+    <row r="4">
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="H4" s="0" t="n"/>
+      <c r="I4" s="0" t="n"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>250</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>300</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
+    <row r="5">
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="H5" s="0" t="n"/>
+      <c r="I5" s="0" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -462,7 +462,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
@@ -529,18 +529,43 @@
       <c r="I2" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
-      <c r="I3" s="0" t="n"/>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" s="0" t="n"/>

--- a/Project/Data/PlayData.xlsx
+++ b/Project/Data/PlayData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="3735" windowWidth="28800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5310" yWindow="4065" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -446,139 +446,1085 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="19.375" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.875" customWidth="1" style="1" min="4" max="4"/>
-    <col width="15.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="17.625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="10.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="17.375" customWidth="1" style="2" min="8" max="8"/>
     <col width="17.625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PlayTime</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Monster Death Count</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Earn Item Count</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>MaxLife</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>킹왕짱</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="0" t="n"/>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>겁나 어려움</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>kimsuckhee</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>730.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>PlayTime</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Monster Death Count</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>Earn Item Count</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Player</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>Speed</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>MaxLife</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="0" t="n">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>kjh</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>841</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>4685.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>dahjdksdhljlkj</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>asddshhjjhjkh</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" s="1">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1669.5</v>
+      </c>
+    </row>
+    <row r="18" s="1">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>991</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="19" s="1">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>695</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Normal</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>4046.5</v>
+      </c>
+    </row>
+    <row r="20" s="1">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Easy</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="21" s="1">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="22" s="1">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>cji</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="23" s="1">
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>FlameSpirit_Normal</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" s="1">
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>123qwe</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="25" s="1">
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>12323aslkjasd</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>FlameSpirit_Normal</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="0" t="n"/>
-      <c r="D4" s="0" t="n"/>
-      <c r="H4" s="0" t="n"/>
-      <c r="I4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="n"/>
-      <c r="D5" s="0" t="n"/>
-      <c r="H5" s="0" t="n"/>
-      <c r="I5" s="0" t="n"/>
-    </row>
+      <c r="K25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="26" s="1">
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" s="1">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>seodongwoo</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>FlameSpirit_Hard</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="28" s="1"/>
+    <row r="29" s="1"/>
+    <row r="30" s="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
